--- a/library/export_calendar.xlsx
+++ b/library/export_calendar.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>Events for the Month of January</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Event Title</t>
   </si>
@@ -35,178 +36,196 @@
     <t>No. of Participants</t>
   </si>
   <si>
+    <t>Posted by</t>
+  </si>
+  <si>
     <t>Target Participants</t>
   </si>
   <si>
-    <t>Posted by</t>
+    <t>Events for the Month of January</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-3409]dddd\,\ mmmm\ dd\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -221,39 +240,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,194 +351,167 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:I239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.1796875" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.453125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.54296875" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.1796875" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.453125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" customHeight="1" ht="14.5">
+    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -530,7 +522,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" customHeight="1" ht="14.5">
+    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -541,40 +533,40 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="5" spans="1:9" customHeight="1" ht="15"/>
-    <row r="6" spans="1:9" customHeight="1" ht="30">
+    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customHeight="1" ht="15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -583,7 +575,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -592,7 +584,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -601,7 +593,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -610,7 +602,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -619,7 +611,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -628,7 +620,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -637,7 +629,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -646,7 +638,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -655,7 +647,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -664,7 +656,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -673,7 +665,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -682,7 +674,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -691,7 +683,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -700,7 +692,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -709,7 +701,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -718,7 +710,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -727,7 +719,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -736,7 +728,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -745,7 +737,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -754,7 +746,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -763,7 +755,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -772,7 +764,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -781,7 +773,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -790,7 +782,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -799,7 +791,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -808,7 +800,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -817,7 +809,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -826,7 +818,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -835,7 +827,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -844,7 +836,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -853,7 +845,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -862,7 +854,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -871,7 +863,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -880,7 +872,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -889,7 +881,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -898,7 +890,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -907,7 +899,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -916,7 +908,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -925,7 +917,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -934,7 +926,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -943,7 +935,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -952,7 +944,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -961,7 +953,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -970,7 +962,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -979,7 +971,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -988,7 +980,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -997,7 +989,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1006,7 +998,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1015,7 +1007,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1024,7 +1016,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1033,7 +1025,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1042,7 +1034,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1051,7 +1043,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1060,7 +1052,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1069,7 +1061,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1078,7 +1070,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1087,7 +1079,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1096,7 +1088,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1105,7 +1097,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1114,7 +1106,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1123,7 +1115,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1132,7 +1124,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1141,7 +1133,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1150,7 +1142,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1159,7 +1151,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1168,7 +1160,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1177,7 +1169,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1186,7 +1178,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1195,7 +1187,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1204,7 +1196,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1213,7 +1205,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1222,7 +1214,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1231,7 +1223,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1240,7 +1232,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1249,7 +1241,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1258,7 +1250,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1267,7 +1259,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1276,7 +1268,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1285,7 +1277,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1294,7 +1286,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1303,7 +1295,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1312,7 +1304,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1321,7 +1313,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1330,7 +1322,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1339,7 +1331,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1348,7 +1340,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1357,7 +1349,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1366,7 +1358,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1375,7 +1367,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1384,7 +1376,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -1393,7 +1385,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1402,7 +1394,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -1411,7 +1403,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -1420,7 +1412,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -1429,7 +1421,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -1438,7 +1430,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -1447,7 +1439,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -1456,7 +1448,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -1465,7 +1457,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -1474,7 +1466,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1483,7 +1475,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -1492,7 +1484,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -1501,7 +1493,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -1510,7 +1502,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -1519,7 +1511,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -1528,7 +1520,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -1537,7 +1529,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -1546,7 +1538,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -1555,7 +1547,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -1564,7 +1556,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -1573,7 +1565,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -1582,7 +1574,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -1591,7 +1583,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -1600,7 +1592,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -1609,7 +1601,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -1618,7 +1610,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -1627,7 +1619,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -1636,7 +1628,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -1645,7 +1637,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -1654,7 +1646,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -1663,7 +1655,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -1672,7 +1664,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -1681,7 +1673,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -1690,7 +1682,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -1699,7 +1691,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -1708,7 +1700,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -1717,7 +1709,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -1726,7 +1718,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -1735,7 +1727,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -1744,7 +1736,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -1753,7 +1745,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -1762,7 +1754,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -1771,7 +1763,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -1780,7 +1772,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -1789,7 +1781,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -1798,7 +1790,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -1807,7 +1799,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -1816,7 +1808,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -1825,7 +1817,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -1834,7 +1826,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -1843,7 +1835,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -1852,7 +1844,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -1861,7 +1853,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -1870,7 +1862,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -1879,7 +1871,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -1888,7 +1880,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -1897,7 +1889,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -1906,7 +1898,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -1915,7 +1907,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -1924,7 +1916,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -1933,7 +1925,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -1942,7 +1934,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -1951,7 +1943,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -1960,7 +1952,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -1969,7 +1961,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -1978,7 +1970,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -1987,7 +1979,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -1996,7 +1988,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -2005,7 +1997,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -2014,7 +2006,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -2023,7 +2015,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -2032,7 +2024,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -2041,7 +2033,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -2050,7 +2042,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -2059,7 +2051,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -2068,7 +2060,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -2077,7 +2069,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -2086,7 +2078,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -2095,7 +2087,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -2104,7 +2096,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -2113,7 +2105,7 @@
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -2122,7 +2114,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -2131,7 +2123,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -2140,7 +2132,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -2149,7 +2141,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -2158,7 +2150,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -2167,7 +2159,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2176,7 +2168,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -2185,7 +2177,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -2194,7 +2186,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -2203,7 +2195,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -2212,7 +2204,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -2221,7 +2213,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2230,7 +2222,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -2239,7 +2231,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -2248,7 +2240,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -2257,7 +2249,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -2266,7 +2258,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -2275,7 +2267,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -2284,7 +2276,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -2293,7 +2285,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -2302,7 +2294,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -2311,7 +2303,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -2320,7 +2312,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -2329,7 +2321,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -2338,7 +2330,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -2347,7 +2339,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -2356,7 +2348,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -2365,7 +2357,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -2374,7 +2366,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -2383,7 +2375,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -2392,7 +2384,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -2401,7 +2393,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -2410,7 +2402,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -2419,7 +2411,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -2428,7 +2420,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -2437,7 +2429,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -2446,7 +2438,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -2455,7 +2447,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -2464,7 +2456,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -2473,7 +2465,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -2482,7 +2474,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -2491,7 +2483,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -2500,7 +2492,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -2509,7 +2501,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -2518,7 +2510,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -2527,7 +2519,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -2536,7 +2528,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -2545,7 +2537,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -2554,7 +2546,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -2563,7 +2555,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -2572,7 +2564,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -2581,7 +2573,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -2590,7 +2582,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -2599,7 +2591,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -2608,33 +2600,32 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <mergeCells count="8">
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -2644,16 +2635,7 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/library/export_calendar.xlsx
+++ b/library/export_calendar.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8025"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$243</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Events for the Month of January</t>
+  </si>
   <si>
     <t>Event Title</t>
   </si>
@@ -36,13 +37,13 @@
     <t>No. of Participants</t>
   </si>
   <si>
+    <t>Target Participants</t>
+  </si>
+  <si>
     <t>Posted by</t>
   </si>
   <si>
-    <t>Target Participants</t>
-  </si>
-  <si>
-    <t>Events for the Month of January</t>
+    <t>Office</t>
   </si>
 </sst>
 </file>
@@ -53,36 +54,49 @@
     <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-3409]dddd\,\ mmmm\ dd\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -95,11 +109,57 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -107,55 +167,9 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,70 +177,163 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1068871</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447261</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1068871" y="248065"/>
+          <a:ext cx="2997890" cy="554355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115130</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1010480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="115130" y="67917"/>
+          <a:ext cx="895350" cy="887620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -240,39 +347,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,241 +458,250 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I239"/>
+  <dimension ref="A6:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="5" spans="1:9" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -593,7 +709,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -602,7 +718,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -611,7 +727,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -620,16 +736,16 @@
       <c r="F13" s="4"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -638,7 +754,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -647,7 +763,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -656,7 +772,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -665,7 +781,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -674,7 +790,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -683,7 +799,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -692,7 +808,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -701,7 +817,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -710,7 +826,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -719,7 +835,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -746,7 +862,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -755,7 +871,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -764,7 +880,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -773,7 +889,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -782,7 +898,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -791,7 +907,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -800,7 +916,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -809,7 +925,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -818,7 +934,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -827,7 +943,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -836,7 +952,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -845,7 +961,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -854,7 +970,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -863,7 +979,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -872,7 +988,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -881,7 +997,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -890,7 +1006,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -899,7 +1015,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -908,7 +1024,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -917,7 +1033,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -926,7 +1042,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -935,7 +1051,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -944,7 +1060,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -953,7 +1069,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -962,7 +1078,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -971,7 +1087,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -980,7 +1096,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -989,7 +1105,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -998,7 +1114,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1007,7 +1123,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1016,7 +1132,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1025,7 +1141,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1034,7 +1150,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1043,7 +1159,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1052,7 +1168,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1061,7 +1177,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1070,7 +1186,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1079,7 +1195,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1088,7 +1204,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1097,7 +1213,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1106,7 +1222,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1115,7 +1231,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1124,7 +1240,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1133,7 +1249,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1142,7 +1258,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1151,7 +1267,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1160,7 +1276,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1169,7 +1285,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1178,7 +1294,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1187,7 +1303,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1196,7 +1312,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1205,7 +1321,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1214,7 +1330,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1223,7 +1339,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1232,7 +1348,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1241,7 +1357,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1250,7 +1366,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1259,7 +1375,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1268,7 +1384,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1277,7 +1393,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1286,7 +1402,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1295,7 +1411,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1304,7 +1420,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1313,7 +1429,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1322,7 +1438,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1331,7 +1447,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1340,7 +1456,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1349,7 +1465,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1358,7 +1474,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1367,7 +1483,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1376,7 +1492,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -1385,7 +1501,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1394,7 +1510,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -1403,7 +1519,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -1412,7 +1528,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -1421,7 +1537,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -1430,7 +1546,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -1439,7 +1555,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -1448,7 +1564,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -1457,7 +1573,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -1466,7 +1582,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1475,7 +1591,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -1484,7 +1600,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -1493,7 +1609,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -1502,7 +1618,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -1511,7 +1627,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -1520,7 +1636,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -1529,7 +1645,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -1538,7 +1654,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -1547,7 +1663,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -1556,7 +1672,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -1565,7 +1681,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -1574,7 +1690,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -1583,7 +1699,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -1592,7 +1708,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -1601,7 +1717,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -1610,7 +1726,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -1619,7 +1735,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -1628,7 +1744,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -1637,7 +1753,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -1646,7 +1762,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -1655,7 +1771,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -1664,7 +1780,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -1673,7 +1789,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -1682,7 +1798,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -1691,7 +1807,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -1700,7 +1816,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -1709,7 +1825,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -1718,7 +1834,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -1727,7 +1843,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -1736,7 +1852,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -1745,7 +1861,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -1754,7 +1870,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -1763,7 +1879,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -1772,7 +1888,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -1781,7 +1897,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -1790,7 +1906,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -1799,7 +1915,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -1808,7 +1924,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -1817,7 +1933,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -1826,7 +1942,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -1835,7 +1951,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -1844,7 +1960,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -1853,7 +1969,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -1862,7 +1978,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -1871,7 +1987,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -1880,7 +1996,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -1889,7 +2005,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -1898,7 +2014,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -1907,7 +2023,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -1916,7 +2032,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -1925,7 +2041,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -1934,25 +2050,25 @@
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="3"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="3"/>
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="3"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -1961,7 +2077,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -1970,7 +2086,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -1979,7 +2095,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -1988,7 +2104,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -1997,7 +2113,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -2006,7 +2122,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -2015,7 +2131,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -2024,7 +2140,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -2033,7 +2149,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -2042,7 +2158,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -2051,7 +2167,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -2060,7 +2176,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -2069,7 +2185,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -2078,7 +2194,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -2087,25 +2203,25 @@
       <c r="F176" s="4"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
+      <c r="F177" s="4"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
+      <c r="F178" s="4"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -2114,7 +2230,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -2123,7 +2239,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -2132,7 +2248,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -2141,7 +2257,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -2150,7 +2266,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -2159,7 +2275,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2168,7 +2284,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -2177,7 +2293,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -2186,7 +2302,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -2195,7 +2311,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -2204,7 +2320,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -2213,7 +2329,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2222,7 +2338,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -2231,7 +2347,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -2240,7 +2356,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -2249,7 +2365,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -2258,7 +2374,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -2267,7 +2383,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -2276,7 +2392,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -2285,7 +2401,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -2294,7 +2410,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -2303,7 +2419,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -2312,7 +2428,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -2321,7 +2437,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -2330,7 +2446,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -2339,7 +2455,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -2348,7 +2464,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -2357,7 +2473,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -2366,7 +2482,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -2375,7 +2491,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -2384,7 +2500,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -2393,7 +2509,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -2402,7 +2518,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -2411,7 +2527,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -2420,7 +2536,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -2429,7 +2545,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -2438,7 +2554,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -2447,7 +2563,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -2456,7 +2572,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -2465,7 +2581,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -2474,7 +2590,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -2483,7 +2599,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -2492,7 +2608,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -2501,7 +2617,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -2510,7 +2626,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -2519,7 +2635,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -2528,7 +2644,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -2537,7 +2653,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -2546,7 +2662,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -2555,7 +2671,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -2564,7 +2680,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -2573,7 +2689,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -2582,60 +2698,81 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
+    <row r="232" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
+    <row r="233" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+    </row>
+    <row r="236" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+    <row r="238" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+    </row>
+    <row r="239" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+    </row>
+    <row r="240" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="2:3" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="9">
+    <mergeCell ref="A6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/library/export_calendar.xlsx
+++ b/library/export_calendar.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Events for the Month of January</t>
+    <t>Events for the month of May</t>
   </si>
   <si>
     <t>Event Title</t>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t>Office</t>
   </si>
   <si>
     <t>Venue</t>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t>Posted by</t>
-  </si>
-  <si>
-    <t>Office</t>
   </si>
 </sst>
 </file>
@@ -64,22 +64,17 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -94,16 +89,29 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -119,12 +127,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -158,16 +162,22 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -177,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,38 +206,47 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,19 +264,14 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1068871</xdr:colOff>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57565</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447261</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>40420</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3000375" cy="552450"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -266,21 +280,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068871" y="248065"/>
-          <a:ext cx="2997890" cy="554355"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -288,20 +296,15 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>115130</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67917</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1010480</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3037</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="895350" cy="885825"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2"/>
@@ -310,21 +313,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="115130" y="67917"/>
-          <a:ext cx="895350" cy="887620"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -332,7 +329,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -625,143 +622,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -862,7 +866,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -871,7 +875,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -880,7 +884,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -889,7 +893,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -898,7 +902,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -907,7 +911,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -916,7 +920,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -925,7 +929,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -934,7 +938,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -943,7 +947,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -952,7 +956,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -961,7 +965,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -970,7 +974,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -979,7 +983,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -988,7 +992,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -997,7 +1001,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1006,7 +1010,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1015,7 +1019,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1024,7 +1028,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1033,7 +1037,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1042,7 +1046,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1051,7 +1055,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1060,7 +1064,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1069,7 +1073,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1078,7 +1082,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1087,7 +1091,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1096,7 +1100,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1105,7 +1109,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1114,7 +1118,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1123,7 +1127,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1132,7 +1136,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1141,7 +1145,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1150,7 +1154,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1159,7 +1163,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1168,7 +1172,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1177,7 +1181,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1186,7 +1190,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1195,7 +1199,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1204,7 +1208,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1213,7 +1217,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1222,7 +1226,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1231,7 +1235,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1240,7 +1244,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1249,7 +1253,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1258,7 +1262,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1267,7 +1271,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1276,7 +1280,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1285,7 +1289,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1294,7 +1298,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1303,7 +1307,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1312,7 +1316,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1321,7 +1325,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1330,7 +1334,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1339,7 +1343,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1348,7 +1352,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1357,7 +1361,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1366,7 +1370,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1375,7 +1379,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1384,7 +1388,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1393,7 +1397,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1402,7 +1406,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1411,7 +1415,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1420,7 +1424,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1429,7 +1433,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1438,7 +1442,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1447,7 +1451,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1456,7 +1460,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1465,7 +1469,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1474,7 +1478,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1483,7 +1487,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1492,7 +1496,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -1501,7 +1505,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1510,7 +1514,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -1519,7 +1523,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -1528,7 +1532,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -1537,7 +1541,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -1546,7 +1550,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -1555,7 +1559,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -1564,7 +1568,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -1573,7 +1577,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -1582,7 +1586,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1591,7 +1595,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -1600,7 +1604,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -1609,7 +1613,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -1618,7 +1622,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -1627,7 +1631,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -1636,7 +1640,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -1645,7 +1649,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -1654,7 +1658,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -1663,7 +1667,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -1672,7 +1676,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -1681,7 +1685,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -1690,7 +1694,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -1699,7 +1703,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -1708,7 +1712,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -1717,7 +1721,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -1726,7 +1730,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -1735,7 +1739,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -1744,7 +1748,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -1753,7 +1757,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -1762,7 +1766,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -1771,7 +1775,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -1780,7 +1784,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -1789,7 +1793,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -1798,7 +1802,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -1807,7 +1811,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -1816,7 +1820,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -1825,7 +1829,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -1834,7 +1838,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -1843,7 +1847,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -1852,7 +1856,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -1861,7 +1865,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -1870,7 +1874,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -1879,7 +1883,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -1888,7 +1892,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -1897,7 +1901,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -1906,7 +1910,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -1915,7 +1919,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -1924,7 +1928,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -1933,7 +1937,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -1942,7 +1946,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -1951,7 +1955,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -1960,7 +1964,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -1969,7 +1973,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -1978,7 +1982,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -1987,7 +1991,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -1996,7 +2000,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -2005,7 +2009,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -2014,7 +2018,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -2023,7 +2027,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -2032,7 +2036,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -2041,7 +2045,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -2050,7 +2054,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -2059,7 +2063,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -2068,7 +2072,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -2077,7 +2081,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -2086,7 +2090,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -2095,7 +2099,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -2104,7 +2108,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -2113,7 +2117,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -2122,7 +2126,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -2131,7 +2135,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -2140,7 +2144,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -2149,7 +2153,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -2158,7 +2162,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -2167,7 +2171,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -2176,7 +2180,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -2185,7 +2189,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -2194,7 +2198,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -2203,7 +2207,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -2212,7 +2216,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -2221,7 +2225,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -2230,7 +2234,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -2239,7 +2243,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -2248,7 +2252,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -2257,7 +2261,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -2266,7 +2270,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -2275,7 +2279,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2284,7 +2288,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -2293,7 +2297,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -2302,7 +2306,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -2311,7 +2315,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -2320,7 +2324,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -2329,7 +2333,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2338,7 +2342,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -2347,7 +2351,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -2356,7 +2360,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -2365,7 +2369,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -2374,7 +2378,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -2383,7 +2387,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -2392,7 +2396,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -2401,7 +2405,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -2410,7 +2414,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -2419,7 +2423,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -2428,7 +2432,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -2437,7 +2441,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -2446,7 +2450,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -2455,7 +2459,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -2464,7 +2468,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -2473,7 +2477,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -2482,7 +2486,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -2491,7 +2495,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -2500,7 +2504,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -2509,7 +2513,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -2518,7 +2522,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -2527,7 +2531,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -2536,7 +2540,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -2545,7 +2549,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -2554,7 +2558,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -2563,7 +2567,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -2572,7 +2576,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -2581,7 +2585,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -2590,7 +2594,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -2599,7 +2603,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -2608,7 +2612,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -2617,7 +2621,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -2626,7 +2630,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -2635,7 +2639,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -2644,7 +2648,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -2653,7 +2657,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -2662,7 +2666,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -2671,7 +2675,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -2680,7 +2684,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -2689,7 +2693,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -2698,7 +2702,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -2707,7 +2711,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -2716,7 +2720,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -2725,7 +2729,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -2734,33 +2738,35 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
     </row>
-    <row r="239" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
     </row>
-    <row r="240" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="2:3" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="9">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A6:G7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -2768,11 +2774,9 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/library/export_calendar.xlsx
+++ b/library/export_calendar.xlsx
@@ -17,12 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Events for the month of May</t>
-  </si>
-  <si>
-    <t>Event Title</t>
+    <t>Activites for  February 2020</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -45,6 +42,12 @@
   <si>
     <t>Posted by</t>
   </si>
+  <si>
+    <t>Activity Title</t>
+  </si>
+  <si>
+    <t>Posted Date</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +57,7 @@
     <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-3409]dddd\,\ mmmm\ dd\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -66,6 +69,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -75,9 +84,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +104,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -112,23 +129,18 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -153,10 +165,30 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -169,17 +201,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -187,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -206,46 +271,60 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:I241"/>
+  <dimension ref="A6:J241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,229 +714,263 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+    <row r="7" spans="1:10" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>8</v>
+      <c r="I8" s="25" t="s">
+        <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="12"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" ht="83.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -865,8 +978,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -874,8 +988,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -883,8 +998,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -892,8 +1008,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -901,8 +1018,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -910,8 +1028,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -919,8 +1038,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -928,8 +1048,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -937,8 +1058,9 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -947,7 +1069,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -956,7 +1078,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -965,7 +1087,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -974,7 +1096,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -983,7 +1105,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -992,7 +1114,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1001,7 +1123,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1010,7 +1132,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1019,7 +1141,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1028,7 +1150,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1037,7 +1159,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1046,7 +1168,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2764,7 +2886,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="A6:G7"/>
@@ -2776,7 +2899,7 @@
     <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/library/export_calendar.xlsx
+++ b/library/export_calendar.xlsx
@@ -159,14 +159,17 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,20 +177,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -208,11 +208,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
+      <xdr:colOff>916373</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2688842" cy="495088"/>
+    <xdr:ext cx="2684898" cy="495088"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1"/>
@@ -221,15 +221,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914401" y="190501"/>
-          <a:ext cx="2688842" cy="495088"/>
+          <a:off x="916373" y="190501"/>
+          <a:ext cx="2684898" cy="495088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -563,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,275 +620,275 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
